--- a/source/cards/weapons_basic_set.xlsx
+++ b/source/cards/weapons_basic_set.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="91">
   <si>
     <t xml:space="preserve">qty</t>
   </si>
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 1 mão. Fácil de esconder.
-Dano 1 :damage: Precisão 2 :accuracy:</t>
+Dano 1 :damage: Precisão 2+1 :accuracy:</t>
   </si>
   <si>
     <t xml:space="preserve">Do tamanho perfeito para contrabando ou regicídio.</t>
@@ -87,7 +87,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 1 mão.
-Dano 2 :damage: Precisão 1 :accuracy:</t>
+Dano 2 :damage: Precisão 1+1 :accuracy:</t>
   </si>
   <si>
     <t xml:space="preserve">Certamente melhor do que os próprios punhos numa briga, mas não por muito…</t>
@@ -100,7 +100,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 1 mão.
-Dano 1 :damage: Precisão 2 :accuracy:</t>
+Dano 1 :damage: Precisão 2+1 :accuracy:</t>
   </si>
   <si>
     <t xml:space="preserve">blank.svg</t>
@@ -113,7 +113,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 1 mão.
-Dano 2 :damage: Precisão 4 :accuracy:</t>
+Dano 2 :damage: Precisão 4+1 :accuracy:</t>
   </si>
   <si>
     <t xml:space="preserve">Empunhando destramente lâminas lânguidas e ágeis, nobres engomados enganam-se que não querem expor os miolos de seus adversários aos abutres.</t>
@@ -126,7 +126,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 1 mão.
-Dano 3 :damage: Precisão 3 :accuracy:</t>
+Dano 3 :damage: Precisão 3+1 :accuracy:</t>
   </si>
   <si>
     <t xml:space="preserve">Uma ferramenta de propósito singular: violência</t>
@@ -148,7 +148,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 1 mão.
-Dano 4 :damage: Precisão 2 :accuracy:</t>
+Dano 4 :damage: Precisão 2+1 :accuracy:</t>
   </si>
   <si>
     <t xml:space="preserve">Não desvela entranhas como machados ou espadas. Ao invés disso, maças moem membros armadurados, revelando seu terror somente em inspeções póstumas.</t>
@@ -167,7 +167,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 2 mãos. Carga 1 :encumbrance:
-Dano 3 :damage: Precisão 3 :accuracy:</t>
+Dano 3 :damage: Precisão 3+1 :accuracy:</t>
   </si>
   <si>
     <t xml:space="preserve">spear-hook.svg</t>
@@ -177,7 +177,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 2 mãos. Carga 1 :encumbrance:
-Dano 4 :damage: Precisão 3 :accuracy:</t>
+Dano 4 :damage: Precisão 3+1 :accuracy:</t>
   </si>
   <si>
     <t xml:space="preserve">Apesar dos gritos de guerra, bandeiras e brazões, nada anuncia melhor o intuito violento de um combatente do que um metro e meio de lâmina.</t>
@@ -186,6 +186,9 @@
     <t xml:space="preserve">croc-sword.svg</t>
   </si>
   <si>
+    <t xml:space="preserve">recarregar</t>
+  </si>
+  <si>
     <t xml:space="preserve">A perfeição divina se manifesta nas pequenas coincidências. Seus sete palmos de lâmina, sete palmos de terra… Quase poético.</t>
   </si>
   <si>
@@ -202,7 +205,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 2 mãos. Carga 1 :encumbrance:
-Dano 5 :damage: Precisão 2 :accuracy: Penetrante 1 :piercing:</t>
+Dano 5 :damage: Precisão 2+1 :accuracy: Penetrante 1 :piercing:</t>
   </si>
   <si>
     <t xml:space="preserve">Quando se tem um martelo deste tamanho, toda cabeça parece um prego.</t>
@@ -214,8 +217,8 @@
     <t xml:space="preserve">Mangual</t>
   </si>
   <si>
-    <t xml:space="preserve">Ocupa 1 mão. Carga 1 :encumbrance:
-Dano 3 :damage: Precisão 2 :accuracy:
+    <t xml:space="preserve">Ocupa 1 mão. Carga 1 :encumbrance:. Exótico.
+Dano 4 :damage: Precisão 2+1 :accuracy:
 Penetrante 1 :piercing: (ignora até 1 Defesa :defense: do alvo)</t>
   </si>
   <si>
@@ -229,7 +232,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 2 mãos. Exótico. Carga 1 :encumbrance:
-Dano 4 :damage: Precisão 2 :accuracy: Penetrante 3 :piercing:</t>
+Dano 4 :damage: Precisão 2+1 :accuracy: Penetrante 3 :piercing:</t>
   </si>
   <si>
     <t xml:space="preserve">Caranguejos escondem suas entranhas com couraças. Cavaleiros têm o mesmo princípio. A lucerne e um martelo de cozinha, portanto, desempenham o mesmo papel: abrir caminho até o  quente e suculento interior.</t>
@@ -242,7 +245,7 @@
   </si>
   <si>
     <t xml:space="preserve">Ocupa 2 mãos.
-Dano 3 :damage: Precisão 2 :accuracy:</t>
+Dano 3 :damage: Precisão 2+1 :accuracy:</t>
   </si>
   <si>
     <t xml:space="preserve">Até os mais desajeitados sabem o que fazer quando se tem um problema e um bom pedaço de pau.</t>
@@ -254,12 +257,26 @@
     <t xml:space="preserve">A sinceridade de um bordão é quase encantadora. Sua simplicidade, inspiradora.</t>
   </si>
   <si>
+    <t xml:space="preserve">Arco Recurvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocupa 2 mãos.
+Dano 2 :damage: Precisão 4+1 :accuracy:
+Alcance :range: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lalilulelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bow-arrow.svg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arco Longo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ocupa 2 mãos. Carga 1 :encumbrance:
-Dano 3 :damage: Precisão 3 :accuracy:
-Alcance médio :range: </t>
+    <t xml:space="preserve">Ocupa 2 mãos.
+Dano 3 :damage: Precisão 3+1 :accuracy:
+Alcance :range: </t>
   </si>
   <si>
     <t xml:space="preserve">Crueldade delegada aos ventos.</t>
@@ -271,15 +288,23 @@
     <t xml:space="preserve">Besta</t>
   </si>
   <si>
-    <t xml:space="preserve">Ocupa 2 mãos. Precisa recarregar. Carga 1 :encumbrance:. 
-Dano 3 :damage: Precisão 3 :accuracy: Penetrante 1 :piercing: 
-Alcance médio :range: </t>
+    <t xml:space="preserve">Ocupa 2 mãos. Carga 1 :encumbrance:. 
+Dano 4 :damage: Precisão 2+1 :accuracy: Penetrante 1 :piercing:
+Alcance :range: </t>
   </si>
   <si>
     <t xml:space="preserve">Aço, corda, mecanismos e engrenagens. Ah, quão longe vai a engenhosidade humana quando se trata de atravessar a couraça que protege órgãos vitais.</t>
   </si>
   <si>
     <t xml:space="preserve">crossbow.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocupa 2 mãos. Carga 1 :encumbrance:. Exótico.
+Dano 3 :damage: Precisão 2+1 :accuracy: Penetrante 3 :piercing:
+Alcance :range: </t>
   </si>
   <si>
     <t xml:space="preserve">______________________</t>
@@ -298,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -319,6 +344,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,7 +395,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,6 +408,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,6 +421,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3D3D3D"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,11 +491,11 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.6"/>
@@ -453,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="78.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>4</v>
       </c>
@@ -751,6 +847,9 @@
       <c r="I15" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="89.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -772,7 +871,7 @@
         <v>49</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>51</v>
@@ -786,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>45</v>
@@ -801,10 +900,10 @@
         <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>19</v>
@@ -815,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>45</v>
@@ -827,13 +926,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>19</v>
@@ -852,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>13</v>
@@ -864,13 +963,13 @@
         <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>19</v>
@@ -881,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>45</v>
@@ -893,13 +992,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>19</v>
@@ -910,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>45</v>
@@ -922,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>19</v>
@@ -939,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>45</v>
@@ -951,53 +1050,29 @@
         <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="I23" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="111.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="155.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>45</v>
@@ -1009,40 +1084,42 @@
         <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="C26" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="H26" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>19</v>
@@ -1051,12 +1128,97 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>83</v>
+      <c r="G30" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
